--- a/doc/excel/JsonCleanseETLTemplate.xlsx
+++ b/doc/excel/JsonCleanseETLTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ0DFI672\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source_code\hub\JsonCleanseETL\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E332C4E-975F-4BBF-832F-C0B4B8620380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DC4C5B-9976-4656-982A-7E2BF3D87CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{99DD2980-78EE-44FC-B651-3F1E9B4C772A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>SourceName</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>$.user.profile.security_questions</t>
+  </si>
+  <si>
+    <t>Nullable</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EA0D7-E02D-4CD0-B926-85FEBA776331}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,10 +526,10 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +545,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -555,8 +561,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -568,8 +575,9 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -581,8 +589,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -594,8 +603,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -607,8 +617,9 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -620,8 +631,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -633,6 +645,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
